--- a/datos_fbref/CLASIFICACION_LIGA_Serie_A.xlsx
+++ b/datos_fbref/CLASIFICACION_LIGA_Serie_A.xlsx
@@ -569,43 +569,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
         <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="n">
         <v>22</v>
       </c>
       <c r="J3" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" t="n">
-        <v>2.21</v>
+        <v>2.16</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>W W D W W</t>
+          <t>W D W W D</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>72609</v>
+        <v>72830</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Christian Pulisic - 8</t>
+          <t>Christian Pulisic, Rafael Leão - 8</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -805,13 +805,13 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
         <v>42</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>D W D W W</t>
+          <t>W W D L D</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>22163</v>
+        <v>11409</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Nikola Krstović - 7</t>
+          <t>Nicolás Paz - 9</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Marco Carnesecchi</t>
+          <t>Jean Butez</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
@@ -845,52 +845,52 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
         <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I8" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L W W D L</t>
+          <t>D W D W W</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>11409</v>
+        <v>22163</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Anastasios Douvikas, Nicolás Paz - 8</t>
+          <t>Nikola Krstović - 7</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Jean Butez</t>
+          <t>Marco Carnesecchi</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>16013</v>
+        <v>16023</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20284</v>
+        <v>19108</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>

--- a/datos_fbref/CLASIFICACION_LIGA_Serie_A.xlsx
+++ b/datos_fbref/CLASIFICACION_LIGA_Serie_A.xlsx
@@ -901,52 +901,52 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="J9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K9" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>L L L L W</t>
+          <t>W W L W W</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>27758</v>
+        <v>15717</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Riccardo Orsolini, Santiago Castro - 7</t>
+          <t>Domenico Berardi - 7</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Federico Ravaglia</t>
+          <t>Arijanet Muric</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
@@ -957,29 +957,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H10" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>33</v>
@@ -989,20 +989,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>L D W D L</t>
+          <t>L L L L W</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35287</v>
+        <v>27758</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Danilo Cataldi, Pedro... - 3</t>
+          <t>Riccardo Orsolini, Santiago Castro - 7</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Ivan Provedel</t>
+          <t>Federico Ravaglia</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
@@ -1013,52 +1013,52 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>25</v>
       </c>
       <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H11" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I11" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>L W W L W</t>
+          <t>L D W D L</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>15717</v>
+        <v>35287</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Domenico Berardi, Andrea Pinamonti - 5</t>
+          <t>Danilo Cataldi, Pedro... - 3</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Arijanet Muric</t>
+          <t>Ivan Provedel</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -1586,26 +1586,26 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
         <v>19</v>
       </c>
       <c r="H21" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I21" t="n">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="J21" t="n">
         <v>15</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>D L L D L</t>
+          <t>L L D L L</t>
         </is>
       </c>
       <c r="M21" t="n">
